--- a/data_output/prism_passive/all_passive_out_licht_fas_length_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_SOL_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,49 +513,49 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>41.535731500072842</v>
+        <v>41.535731514261613</v>
       </c>
       <c r="O2">
-        <v>43.137025924674973</v>
+        <v>43.137025930401123</v>
       </c>
       <c r="P2">
-        <v>46.599542050481112</v>
+        <v>46.599542036194165</v>
       </c>
       <c r="Q2">
-        <v>21.846102210059115</v>
+        <v>21.846102190584233</v>
       </c>
       <c r="R2">
-        <v>21.834834656169992</v>
+        <v>21.834834647764225</v>
       </c>
       <c r="U2">
-        <v>23.780648555432016</v>
+        <v>23.780648543208262</v>
       </c>
       <c r="V2">
-        <v>16.3771129111148</v>
+        <v>16.377113022613539</v>
       </c>
       <c r="W2">
-        <v>16.658917497618781</v>
+        <v>16.6589174850013</v>
       </c>
       <c r="AB2">
-        <v>62.415563730591927</v>
+        <v>62.415563713268185</v>
       </c>
       <c r="AF2">
-        <v>61.805767329528656</v>
+        <v>61.805767325342657</v>
       </c>
       <c r="AK2">
-        <v>36.984166283821146</v>
+        <v>36.984166237144791</v>
       </c>
       <c r="AL2">
-        <v>57.798422887981417</v>
+        <v>57.79842288392463</v>
       </c>
       <c r="AO2">
-        <v>41.855378498117688</v>
+        <v>41.855378521765942</v>
       </c>
       <c r="AP2">
-        <v>41.201952344648568</v>
+        <v>41.201952320967607</v>
       </c>
       <c r="AT2">
-        <v>47.200789970730668</v>
+        <v>47.200789974662186</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -568,43 +563,43 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>51.755699262500769</v>
+        <v>51.755699263513684</v>
       </c>
       <c r="C3">
-        <v>55.222230005208225</v>
+        <v>55.222229980601384</v>
       </c>
       <c r="F3">
-        <v>30.624329616844438</v>
+        <v>30.624329595927829</v>
       </c>
       <c r="G3">
-        <v>49.674172561928785</v>
+        <v>49.674172545982394</v>
       </c>
       <c r="I3">
-        <v>17.494575830022026</v>
+        <v>17.494575825080901</v>
       </c>
       <c r="R3">
-        <v>41.884430894010485</v>
+        <v>41.884430876923176</v>
       </c>
       <c r="U3">
-        <v>41.697062607912564</v>
+        <v>41.697062573615518</v>
       </c>
       <c r="V3">
-        <v>16.217994253929028</v>
+        <v>16.217994257696709</v>
       </c>
       <c r="AA3">
-        <v>59.740342733066804</v>
+        <v>59.740342702349153</v>
       </c>
       <c r="AJ3">
-        <v>43.219019550497109</v>
+        <v>43.219019490810524</v>
       </c>
       <c r="AK3">
-        <v>56.373359016325367</v>
+        <v>56.373359017644219</v>
       </c>
       <c r="AU3">
-        <v>33.85091824134954</v>
+        <v>33.850918203268577</v>
       </c>
       <c r="AV3">
-        <v>42.126259505410133</v>
+        <v>42.126259487034972</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_SOL_trial_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,23 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>41.535731514261613</v>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>43.137025930401123</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>46.599542036194165</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>21.846102190584233</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>21.834834647764225</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>23.780648543208262</v>
@@ -536,49 +461,112 @@
       <c r="W2">
         <v>16.6589174850013</v>
       </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
       <c r="AB2">
-        <v>62.415563713268185</v>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>61.805767325342657</v>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>36.984166237144791</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>57.79842288392463</v>
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>41.855378521765942</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>41.201952320967607</v>
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
       </c>
       <c r="AT2">
         <v>47.200789974662186</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>51.755699263513684</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>55.222229980601384</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>30.624329595927829</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>49.674172545982394</v>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>17.494575825080901</v>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>41.884430876923176</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>41.697062573615518</v>
@@ -587,13 +575,55 @@
         <v>16.217994257696709</v>
       </c>
       <c r="AA3">
-        <v>59.740342702349153</v>
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>43.219019490810524</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>56.373359017644219</v>
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
       </c>
       <c r="AU3">
         <v>33.850918203268577</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_SOL_trial_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,8 +512,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>41.535731500072842</v>
+      <c r="B2">
+        <v>43.137025930401123</v>
+      </c>
+      <c r="C2">
+        <v>21.834834647764225</v>
       </c>
       <c r="O2">
         <v>43.137025924674973</v>
@@ -564,11 +562,8 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>51.755699262500769</v>
-      </c>
       <c r="C3">
-        <v>55.222230005208225</v>
+        <v>41.884430876923176</v>
       </c>
       <c r="F3">
         <v>30.624329616844438</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_SOL_trial_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,8 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>41.535731500072842</v>
+      <c r="C2">
+        <v>43.137025930401123</v>
       </c>
       <c r="O2">
         <v>43.137025924674973</v>
@@ -566,12 +561,6 @@
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3">
-        <v>51.755699262500769</v>
-      </c>
-      <c r="C3">
-        <v>55.222230005208225</v>
       </c>
       <c r="F3">
         <v>30.624329616844438</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_SOL_trial_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_SOL_trial_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,85 +512,91 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="D2">
+        <v>41.535731514261613</v>
+      </c>
+      <c r="O2">
         <v>43.137025930401123</v>
       </c>
-      <c r="O2">
-        <v>43.137025924674973</v>
-      </c>
       <c r="P2">
-        <v>48.719313905607741</v>
+        <v>48.719313891371733</v>
       </c>
       <c r="Q2">
-        <v>21.846102210059115</v>
+        <v>21.846102190584233</v>
       </c>
       <c r="R2">
-        <v>21.834834656169992</v>
+        <v>21.834834647764225</v>
       </c>
       <c r="U2">
-        <v>23.780648555432016</v>
+        <v>23.780648543208262</v>
       </c>
       <c r="V2">
-        <v>29.2871129111148</v>
+        <v>29.287113022613539</v>
       </c>
       <c r="W2">
-        <v>16.658917497618781</v>
+        <v>16.6589174850013</v>
       </c>
       <c r="AB2">
-        <v>62.415563730591927</v>
+        <v>62.415563713268185</v>
       </c>
       <c r="AF2">
-        <v>61.805767329528656</v>
+        <v>61.805767325342657</v>
       </c>
       <c r="AK2">
-        <v>36.984166283821146</v>
+        <v>36.984166237144791</v>
       </c>
       <c r="AL2">
-        <v>57.798422887981417</v>
+        <v>57.79842288392463</v>
       </c>
       <c r="AO2">
-        <v>41.855378498117688</v>
+        <v>41.855378521765942</v>
       </c>
       <c r="AP2">
-        <v>42.929906256656039</v>
+        <v>42.929906224289581</v>
       </c>
       <c r="AT2">
-        <v>47.200789970730668</v>
+        <v>47.200789974662186</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>51.755699263513684</v>
+      </c>
+      <c r="C3">
+        <v>55.222229980601384</v>
+      </c>
       <c r="F3">
-        <v>30.624329616844438</v>
+        <v>30.624329595927829</v>
       </c>
       <c r="G3">
-        <v>49.674172561928785</v>
+        <v>49.674172545982394</v>
       </c>
       <c r="I3">
-        <v>17.494575830022026</v>
+        <v>17.494575825080901</v>
       </c>
       <c r="R3">
-        <v>41.884430894010485</v>
+        <v>41.884430876923176</v>
       </c>
       <c r="U3">
-        <v>41.697062607912564</v>
+        <v>41.697062573615518</v>
       </c>
       <c r="V3">
-        <v>33.001823150551878</v>
+        <v>33.001823138512883</v>
       </c>
       <c r="AA3">
-        <v>59.740342733066804</v>
+        <v>59.740342702349153</v>
       </c>
       <c r="AJ3">
-        <v>43.219019550497109</v>
+        <v>43.219019490810524</v>
       </c>
       <c r="AK3">
-        <v>56.373359016325367</v>
+        <v>56.373359017644219</v>
       </c>
       <c r="AV3">
-        <v>42.126259505410133</v>
+        <v>42.126259487034972</v>
       </c>
     </row>
   </sheetData>
